--- a/populationInfo/OriginalMetadata/DrosEU_SA_Metadada_DESTv2.xlsx
+++ b/populationInfo/OriginalMetadata/DrosEU_SA_Metadada_DESTv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DESTv2/populationInfo/OriginalMetadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22107550-C596-764A-B056-D509D42A02F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717DBBF0-EDB6-BC43-AB79-BF02452A2D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="500" windowWidth="27640" windowHeight="16280" xr2:uid="{F906F1B3-3C6A-D84D-A2D4-DE5983CEF7E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t>Country</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>city</t>
+  </si>
+  <si>
+    <t>nFlies</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -255,6 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D44F95-3AE8-3949-A519-ADFDBEAD32F4}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="R2" sqref="R2:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -584,7 +588,7 @@
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +640,11 @@
       <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="17">
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -689,8 +696,11 @@
       <c r="Q2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -742,8 +752,11 @@
       <c r="Q3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -795,8 +808,11 @@
       <c r="Q4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -848,8 +864,11 @@
       <c r="Q5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -901,8 +920,11 @@
       <c r="Q6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="Q7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1007,8 +1032,11 @@
       <c r="Q8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1059,6 +1087,9 @@
       </c>
       <c r="Q9" t="s">
         <v>43</v>
+      </c>
+      <c r="R9" s="8">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="68">
+    <row r="4" spans="1:5" ht="17">
       <c r="A4" t="s">
         <v>5</v>
       </c>
